--- a/biology/Botanique/Sterculia/Sterculia.xlsx
+++ b/biology/Botanique/Sterculia/Sterculia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sterculia est un genre botanique de la famille des Malvaceae selon la classification phylogénétique (ou des Sterculiaceae selon la classification classique). Il compte 200 à 300 espèces d'arbres tropicaux. 
 Ce genre doit son nom à Sterculius, dieu Romain de la croissance des végétaux (et des engrais) certainement en raison de l'odeur de fumier de l'arbre caca, Sterculia foetida.
@@ -512,7 +524,9 @@
           <t>Sélection d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sterculia acerifolia A. Cunn., 1830
@@ -554,9 +568,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (21 mai 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (21 mai 2022) :
 Clompanus molucanus Raf.
 Eribroma klaineana Pierre
 Mateatia cariosa Steud.
@@ -839,7 +855,7 @@
 Sterculia yuanjiangensis H.H.Hsue &amp; S.J.Xu
 Sterculia zeylanica Kosterm.
 Sterculia zippelii Korth.
-Selon Tropicos                                           (21 mai 2022)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 mai 2022) (Attention liste brute contenant possiblement des synonymes) :
 Sterculia abbreviata E.L. Taylor ex Mondragón, 2005
 Sterculia acerifolia A. Cunn., 1830
 Sterculia acerifolia (C. Presl) Hemsl., 1879
@@ -924,9 +940,9 @@
 Sterculia garrawayae F.M. Bailey, 1899
 Sterculia gengmaensis H.H. Hsue ex Y. Tang, M.G. Gilbert &amp; Dorr, 2007
 Sterculia gengmaensis H.H. Hsue, 1977
-Sterculia geniculata Miq., 1860 [1861]
+Sterculia geniculata Miq., 1860 
 Sterculia glabrifolia Mildbr., 1927
-Sterculia glauca A.H. Gentry, 1976 [1977]
+Sterculia glauca A.H. Gentry, 1976 
 Sterculia glomerata Blanco, 1837
 Sterculia goyazensis Glaz., 1905
 Sterculia grandiflora Vent., 1805
@@ -946,7 +962,7 @@
 Sterculia humblotiana Baill., 1885
 Sterculia hymenocalyx K. Schum., 1897
 Sterculia hypochroa Pierre, 1888
-Sterculia hyposticta Miq., 1860 [1861]
+Sterculia hyposticta Miq., 1860 
 Sterculia imberbis DC.
 Sterculia impressinervis H.H. Hsue, 1977
 Sterculia indica Merr., 1952
@@ -996,7 +1012,7 @@
 Sterculia pallens Wall. ex King, 1891
 Sterculia parviflora Roxb., 1832
 Sterculia parviflora (Ducke) E.L. Taylor ex Brako &amp; Zarucchi, 1993
-Sterculia pendula Ducke, 1950 [1951]
+Sterculia pendula Ducke, 1950 
 Sterculia perrieri Arènes, 1949
 Sterculia peruviana (D.R. Simpson) E.L. Taylor ex Brako &amp; Zarucchi, 1993
 Sterculia petenensis E.L. Taylor ex D. Santam. &amp; Al. Rodr., 2020
@@ -1004,7 +1020,7 @@
 Sterculia philippinensis Merr., 1904
 Sterculia pilosa Ducke, 1922
 Sterculia pinbienensis H.T. Tsai &amp; P.I. Mao, 1964
-Sterculia platanifolia L. f., 1781 [1782]
+Sterculia platanifolia L. f., 1781 
 Sterculia pojoira Cuatrec., 1952
 Sterculia populifolia Roxb., 1832
 Sterculia porphyroclada Merr. &amp; L.M. Perry, 1949
@@ -1037,7 +1053,7 @@
 Sterculia setigera Delile, 1826
 Sterculia setistipula Merr., 1929
 Sterculia simaoensis Y.Y. Qian, 1997
-Sterculia simplex (L.) Druce, 1913 [1914]
+Sterculia simplex (L.) Druce, 1913 
 Sterculia solitudinis Mildbr., 1931
 Sterculia speciosa K. Schum., 1886
 Sterculia stenocarpa H.J.P. Winkl., 1922
@@ -1142,7 +1158,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces sont en danger notamment Sterculia alexandri, Sterculia cinerea, Sterculia khasiana, Sterculia parviflora et Sterculia schliebenii. 
 </t>
@@ -1173,7 +1191,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces de Sterculia sont utilisées comme nourriture par les larves de certains lépidoptères.
 La gomme de sterculia (exsudat des branches du Sterculia urens) ou gomme karaya est utilisée dans l'industrie alimentaire et pharmaceutique.
